--- a/30411/Papp - Szentannai G. Gergo/Assignment 7 - Hash Tables (Open Addressing)/Hash Statistics.xlsx
+++ b/30411/Papp - Szentannai G. Gergo/Assignment 7 - Hash Tables (Open Addressing)/Hash Statistics.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="15">
   <si>
     <t>Hash Function (char * c, int i);</t>
   </si>
@@ -57,6 +57,9 @@
   <si>
     <t>it took too much time &amp; 15 % CPU usage</t>
   </si>
+  <si>
+    <t>Huge improvement, but still slow</t>
+  </si>
 </sst>
 </file>
 
@@ -91,7 +94,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -122,6 +125,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="26">
     <border>
@@ -464,7 +479,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -538,6 +553,147 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -574,136 +730,10 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1012,8 +1042,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Y7" sqref="Y7"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O31" sqref="O31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1023,162 +1053,162 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="28" t="s">
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="75" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="31" t="s">
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="32"/>
-      <c r="M1" s="32"/>
-      <c r="N1" s="32"/>
-      <c r="O1" s="33"/>
-      <c r="P1" s="34" t="s">
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="80"/>
+      <c r="P1" s="81" t="s">
         <v>11</v>
       </c>
-      <c r="Q1" s="35"/>
-      <c r="R1" s="35"/>
-      <c r="S1" s="35"/>
-      <c r="T1" s="36"/>
+      <c r="Q1" s="82"/>
+      <c r="R1" s="82"/>
+      <c r="S1" s="82"/>
+      <c r="T1" s="83"/>
     </row>
     <row r="2" spans="1:22" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="50" t="s">
+      <c r="C2" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="50" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="51" t="s">
+      <c r="D2" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="52" t="s">
+      <c r="F2" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="53" t="s">
+      <c r="G2" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="53" t="s">
+      <c r="H2" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="53" t="s">
-        <v>3</v>
-      </c>
-      <c r="J2" s="54" t="s">
+      <c r="I2" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="J2" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="K2" s="55" t="s">
+      <c r="K2" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="L2" s="56" t="s">
+      <c r="L2" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="M2" s="56" t="s">
+      <c r="M2" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="N2" s="56" t="s">
-        <v>3</v>
-      </c>
-      <c r="O2" s="57" t="s">
+      <c r="N2" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="O2" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="58" t="s">
+      <c r="P2" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="Q2" s="59" t="s">
+      <c r="Q2" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="R2" s="59" t="s">
+      <c r="R2" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="S2" s="59" t="s">
-        <v>3</v>
-      </c>
-      <c r="T2" s="60" t="s">
+      <c r="S2" s="47" t="s">
+        <v>3</v>
+      </c>
+      <c r="T2" s="48" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="61" t="s">
+      <c r="A3" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="62">
-        <v>0.25</v>
-      </c>
-      <c r="C3" s="62">
+      <c r="B3" s="50">
+        <v>0.25</v>
+      </c>
+      <c r="C3" s="50">
         <v>0.6</v>
       </c>
-      <c r="D3" s="62">
-        <v>7</v>
-      </c>
-      <c r="E3" s="63">
-        <v>3</v>
-      </c>
-      <c r="F3" s="64" t="s">
+      <c r="D3" s="50">
+        <v>7</v>
+      </c>
+      <c r="E3" s="51">
+        <v>3</v>
+      </c>
+      <c r="F3" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="65">
-        <v>0.25</v>
-      </c>
-      <c r="H3" s="65">
+      <c r="G3" s="53">
+        <v>0.25</v>
+      </c>
+      <c r="H3" s="53">
         <v>0.6</v>
       </c>
-      <c r="I3" s="65">
+      <c r="I3" s="53">
         <v>852</v>
       </c>
-      <c r="J3" s="66">
-        <v>3</v>
-      </c>
-      <c r="K3" s="67" t="s">
+      <c r="J3" s="54">
+        <v>3</v>
+      </c>
+      <c r="K3" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="68">
-        <v>0.25</v>
-      </c>
-      <c r="M3" s="68">
+      <c r="L3" s="56">
+        <v>0.25</v>
+      </c>
+      <c r="M3" s="56">
         <v>0.6</v>
       </c>
-      <c r="N3" s="68">
+      <c r="N3" s="56">
         <v>4848</v>
       </c>
-      <c r="O3" s="69">
-        <v>3</v>
-      </c>
-      <c r="P3" s="70" t="s">
+      <c r="O3" s="57">
+        <v>3</v>
+      </c>
+      <c r="P3" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="Q3" s="71">
-        <v>0.25</v>
-      </c>
-      <c r="R3" s="71">
+      <c r="Q3" s="59">
+        <v>0.25</v>
+      </c>
+      <c r="R3" s="59">
         <v>0.6</v>
       </c>
-      <c r="S3" s="71">
+      <c r="S3" s="61">
         <v>49696</v>
       </c>
-      <c r="T3" s="72">
-        <v>3</v>
-      </c>
-      <c r="U3" s="73" t="s">
+      <c r="T3" s="60">
+        <v>3</v>
+      </c>
+      <c r="U3" s="84" t="s">
         <v>12</v>
       </c>
-      <c r="V3" s="74"/>
+      <c r="V3" s="85"/>
     </row>
     <row r="4" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
@@ -1235,12 +1265,12 @@
       <c r="R4" s="4">
         <v>0.75</v>
       </c>
-      <c r="S4" s="75" t="s">
+      <c r="S4" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="T4" s="76"/>
-      <c r="U4" s="73"/>
-      <c r="V4" s="74"/>
+      <c r="T4" s="67"/>
+      <c r="U4" s="84"/>
+      <c r="V4" s="85"/>
     </row>
     <row r="5" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
@@ -1297,10 +1327,10 @@
       <c r="R5" s="4">
         <v>0.8</v>
       </c>
-      <c r="S5" s="77"/>
-      <c r="T5" s="78"/>
-      <c r="U5" s="73"/>
-      <c r="V5" s="74"/>
+      <c r="S5" s="68"/>
+      <c r="T5" s="69"/>
+      <c r="U5" s="84"/>
+      <c r="V5" s="85"/>
     </row>
     <row r="6" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
@@ -1357,10 +1387,10 @@
       <c r="R6" s="4">
         <v>0.83</v>
       </c>
-      <c r="S6" s="77"/>
-      <c r="T6" s="78"/>
-      <c r="U6" s="73"/>
-      <c r="V6" s="74"/>
+      <c r="S6" s="68"/>
+      <c r="T6" s="69"/>
+      <c r="U6" s="84"/>
+      <c r="V6" s="85"/>
     </row>
     <row r="7" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
@@ -1417,10 +1447,10 @@
       <c r="R7" s="4">
         <v>0.85</v>
       </c>
-      <c r="S7" s="77"/>
-      <c r="T7" s="78"/>
-      <c r="U7" s="73"/>
-      <c r="V7" s="74"/>
+      <c r="S7" s="68"/>
+      <c r="T7" s="69"/>
+      <c r="U7" s="84"/>
+      <c r="V7" s="85"/>
     </row>
     <row r="8" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
@@ -1432,8 +1462,12 @@
       <c r="C8" s="8">
         <v>0.9</v>
       </c>
-      <c r="D8" s="8"/>
-      <c r="E8" s="9"/>
+      <c r="D8" s="8">
+        <v>27</v>
+      </c>
+      <c r="E8" s="9">
+        <v>2</v>
+      </c>
       <c r="F8" s="12" t="s">
         <v>5</v>
       </c>
@@ -1443,8 +1477,12 @@
       <c r="H8" s="13">
         <v>0.9</v>
       </c>
-      <c r="I8" s="13"/>
-      <c r="J8" s="14"/>
+      <c r="I8" s="13">
+        <v>852</v>
+      </c>
+      <c r="J8" s="14">
+        <v>2</v>
+      </c>
       <c r="K8" s="17" t="s">
         <v>5</v>
       </c>
@@ -1454,10 +1492,10 @@
       <c r="M8" s="18">
         <v>0.9</v>
       </c>
-      <c r="N8" s="3">
+      <c r="N8" s="18">
         <v>4848</v>
       </c>
-      <c r="O8" s="16">
+      <c r="O8" s="19">
         <v>3</v>
       </c>
       <c r="P8" s="22" t="s">
@@ -1469,56 +1507,72 @@
       <c r="R8" s="23">
         <v>0.9</v>
       </c>
-      <c r="S8" s="79"/>
-      <c r="T8" s="80"/>
-      <c r="U8" s="73"/>
-      <c r="V8" s="74"/>
+      <c r="S8" s="70"/>
+      <c r="T8" s="71"/>
+      <c r="U8" s="84"/>
+      <c r="V8" s="85"/>
     </row>
     <row r="9" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="61" t="s">
+      <c r="A9" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="62">
-        <v>0.25</v>
-      </c>
-      <c r="C9" s="62">
+      <c r="B9" s="26">
+        <v>0.25</v>
+      </c>
+      <c r="C9" s="26">
         <v>0.6</v>
       </c>
-      <c r="D9" s="62"/>
-      <c r="E9" s="63"/>
-      <c r="F9" s="64" t="s">
+      <c r="D9" s="26">
+        <v>10</v>
+      </c>
+      <c r="E9" s="27">
+        <v>3</v>
+      </c>
+      <c r="F9" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="65">
-        <v>0.25</v>
-      </c>
-      <c r="H9" s="65">
+      <c r="G9" s="29">
+        <v>0.25</v>
+      </c>
+      <c r="H9" s="29">
         <v>0.6</v>
       </c>
-      <c r="I9" s="65"/>
-      <c r="J9" s="66"/>
-      <c r="K9" s="67" t="s">
+      <c r="I9" s="29">
+        <v>223</v>
+      </c>
+      <c r="J9" s="30">
+        <v>3</v>
+      </c>
+      <c r="K9" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="L9" s="68">
-        <v>0.25</v>
-      </c>
-      <c r="M9" s="68">
+      <c r="L9" s="32">
+        <v>0.25</v>
+      </c>
+      <c r="M9" s="32">
         <v>0.6</v>
       </c>
-      <c r="N9" s="68"/>
-      <c r="O9" s="69"/>
-      <c r="P9" s="70" t="s">
+      <c r="N9" s="32">
+        <v>1583</v>
+      </c>
+      <c r="O9" s="33">
+        <v>3</v>
+      </c>
+      <c r="P9" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="Q9" s="71">
-        <v>0.25</v>
-      </c>
-      <c r="R9" s="71">
+      <c r="Q9" s="35">
+        <v>0.25</v>
+      </c>
+      <c r="R9" s="35">
         <v>0.6</v>
       </c>
-      <c r="S9" s="71"/>
-      <c r="T9" s="72"/>
+      <c r="S9" s="65">
+        <v>16583</v>
+      </c>
+      <c r="T9" s="36">
+        <v>3</v>
+      </c>
     </row>
     <row r="10" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
@@ -1530,8 +1584,12 @@
       <c r="C10" s="1">
         <v>0.75</v>
       </c>
-      <c r="D10" s="1"/>
-      <c r="E10" s="6"/>
+      <c r="D10" s="1">
+        <v>11</v>
+      </c>
+      <c r="E10" s="6">
+        <v>3</v>
+      </c>
       <c r="F10" s="10" t="s">
         <v>6</v>
       </c>
@@ -1541,8 +1599,12 @@
       <c r="H10" s="2">
         <v>0.75</v>
       </c>
-      <c r="I10" s="2"/>
-      <c r="J10" s="11"/>
+      <c r="I10" s="2">
+        <v>223</v>
+      </c>
+      <c r="J10" s="11">
+        <v>3</v>
+      </c>
       <c r="K10" s="15" t="s">
         <v>6</v>
       </c>
@@ -1552,8 +1614,12 @@
       <c r="M10" s="3">
         <v>0.75</v>
       </c>
-      <c r="N10" s="3"/>
-      <c r="O10" s="16"/>
+      <c r="N10" s="3">
+        <v>1583</v>
+      </c>
+      <c r="O10" s="16">
+        <v>3</v>
+      </c>
       <c r="P10" s="20" t="s">
         <v>6</v>
       </c>
@@ -1563,8 +1629,10 @@
       <c r="R10" s="4">
         <v>0.75</v>
       </c>
-      <c r="S10" s="4"/>
-      <c r="T10" s="21"/>
+      <c r="S10" s="66" t="s">
+        <v>14</v>
+      </c>
+      <c r="T10" s="67"/>
     </row>
     <row r="11" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
@@ -1576,8 +1644,12 @@
       <c r="C11" s="1">
         <v>0.8</v>
       </c>
-      <c r="D11" s="1"/>
-      <c r="E11" s="6"/>
+      <c r="D11" s="1">
+        <v>13</v>
+      </c>
+      <c r="E11" s="6">
+        <v>3</v>
+      </c>
       <c r="F11" s="10" t="s">
         <v>6</v>
       </c>
@@ -1587,8 +1659,12 @@
       <c r="H11" s="2">
         <v>0.8</v>
       </c>
-      <c r="I11" s="2"/>
-      <c r="J11" s="11"/>
+      <c r="I11" s="2">
+        <v>223</v>
+      </c>
+      <c r="J11" s="11">
+        <v>3</v>
+      </c>
       <c r="K11" s="15" t="s">
         <v>6</v>
       </c>
@@ -1598,8 +1674,12 @@
       <c r="M11" s="3">
         <v>0.8</v>
       </c>
-      <c r="N11" s="3"/>
-      <c r="O11" s="16"/>
+      <c r="N11" s="3">
+        <v>1583</v>
+      </c>
+      <c r="O11" s="16">
+        <v>3</v>
+      </c>
       <c r="P11" s="20" t="s">
         <v>6</v>
       </c>
@@ -1609,8 +1689,8 @@
       <c r="R11" s="4">
         <v>0.8</v>
       </c>
-      <c r="S11" s="4"/>
-      <c r="T11" s="21"/>
+      <c r="S11" s="68"/>
+      <c r="T11" s="69"/>
     </row>
     <row r="12" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
@@ -1622,8 +1702,12 @@
       <c r="C12" s="1">
         <v>0.83</v>
       </c>
-      <c r="D12" s="1"/>
-      <c r="E12" s="6"/>
+      <c r="D12" s="1">
+        <v>23</v>
+      </c>
+      <c r="E12" s="6">
+        <v>3</v>
+      </c>
       <c r="F12" s="10" t="s">
         <v>6</v>
       </c>
@@ -1633,8 +1717,12 @@
       <c r="H12" s="2">
         <v>0.83</v>
       </c>
-      <c r="I12" s="2"/>
-      <c r="J12" s="11"/>
+      <c r="I12" s="2">
+        <v>223</v>
+      </c>
+      <c r="J12" s="11">
+        <v>3</v>
+      </c>
       <c r="K12" s="15" t="s">
         <v>6</v>
       </c>
@@ -1644,8 +1732,12 @@
       <c r="M12" s="3">
         <v>0.83</v>
       </c>
-      <c r="N12" s="3"/>
-      <c r="O12" s="16"/>
+      <c r="N12" s="3">
+        <v>1583</v>
+      </c>
+      <c r="O12" s="16">
+        <v>3</v>
+      </c>
       <c r="P12" s="20" t="s">
         <v>6</v>
       </c>
@@ -1655,8 +1747,8 @@
       <c r="R12" s="4">
         <v>0.83</v>
       </c>
-      <c r="S12" s="4"/>
-      <c r="T12" s="21"/>
+      <c r="S12" s="68"/>
+      <c r="T12" s="69"/>
     </row>
     <row r="13" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
@@ -1668,8 +1760,12 @@
       <c r="C13" s="1">
         <v>0.85</v>
       </c>
-      <c r="D13" s="1"/>
-      <c r="E13" s="6"/>
+      <c r="D13" s="1">
+        <v>23</v>
+      </c>
+      <c r="E13" s="6">
+        <v>3</v>
+      </c>
       <c r="F13" s="10" t="s">
         <v>6</v>
       </c>
@@ -1679,8 +1775,12 @@
       <c r="H13" s="2">
         <v>0.85</v>
       </c>
-      <c r="I13" s="2"/>
-      <c r="J13" s="11"/>
+      <c r="I13" s="2">
+        <v>223</v>
+      </c>
+      <c r="J13" s="11">
+        <v>3</v>
+      </c>
       <c r="K13" s="15" t="s">
         <v>6</v>
       </c>
@@ -1690,8 +1790,12 @@
       <c r="M13" s="3">
         <v>0.85</v>
       </c>
-      <c r="N13" s="3"/>
-      <c r="O13" s="16"/>
+      <c r="N13" s="3">
+        <v>1583</v>
+      </c>
+      <c r="O13" s="16">
+        <v>3</v>
+      </c>
       <c r="P13" s="20" t="s">
         <v>6</v>
       </c>
@@ -1701,8 +1805,8 @@
       <c r="R13" s="4">
         <v>0.85</v>
       </c>
-      <c r="S13" s="4"/>
-      <c r="T13" s="21"/>
+      <c r="S13" s="68"/>
+      <c r="T13" s="69"/>
     </row>
     <row r="14" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
@@ -1714,8 +1818,12 @@
       <c r="C14" s="8">
         <v>0.9</v>
       </c>
-      <c r="D14" s="8"/>
-      <c r="E14" s="9"/>
+      <c r="D14" s="8">
+        <v>44</v>
+      </c>
+      <c r="E14" s="9">
+        <v>2</v>
+      </c>
       <c r="F14" s="12" t="s">
         <v>6</v>
       </c>
@@ -1725,8 +1833,12 @@
       <c r="H14" s="13">
         <v>0.9</v>
       </c>
-      <c r="I14" s="13"/>
-      <c r="J14" s="14"/>
+      <c r="I14" s="13">
+        <v>259</v>
+      </c>
+      <c r="J14" s="14">
+        <v>2</v>
+      </c>
       <c r="K14" s="17" t="s">
         <v>6</v>
       </c>
@@ -1736,8 +1848,12 @@
       <c r="M14" s="18">
         <v>0.9</v>
       </c>
-      <c r="N14" s="18"/>
-      <c r="O14" s="19"/>
+      <c r="N14" s="18">
+        <v>1583</v>
+      </c>
+      <c r="O14" s="19">
+        <v>2</v>
+      </c>
       <c r="P14" s="22" t="s">
         <v>6</v>
       </c>
@@ -1747,54 +1863,70 @@
       <c r="R14" s="23">
         <v>0.9</v>
       </c>
-      <c r="S14" s="23"/>
-      <c r="T14" s="24"/>
+      <c r="S14" s="70"/>
+      <c r="T14" s="71"/>
     </row>
     <row r="15" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="37" t="s">
-        <v>7</v>
-      </c>
-      <c r="B15" s="38">
-        <v>0.25</v>
-      </c>
-      <c r="C15" s="38">
+      <c r="A15" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" s="26">
+        <v>0.25</v>
+      </c>
+      <c r="C15" s="26">
         <v>0.6</v>
       </c>
-      <c r="D15" s="38"/>
-      <c r="E15" s="39"/>
-      <c r="F15" s="40" t="s">
-        <v>7</v>
-      </c>
-      <c r="G15" s="41">
-        <v>0.25</v>
-      </c>
-      <c r="H15" s="41">
+      <c r="D15" s="26">
+        <v>14</v>
+      </c>
+      <c r="E15" s="27">
+        <v>3</v>
+      </c>
+      <c r="F15" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="G15" s="29">
+        <v>0.25</v>
+      </c>
+      <c r="H15" s="29">
         <v>0.6</v>
       </c>
-      <c r="I15" s="41"/>
-      <c r="J15" s="42"/>
-      <c r="K15" s="43" t="s">
-        <v>7</v>
-      </c>
-      <c r="L15" s="44">
-        <v>0.25</v>
-      </c>
-      <c r="M15" s="44">
+      <c r="I15" s="29">
+        <v>22</v>
+      </c>
+      <c r="J15" s="30">
+        <v>3</v>
+      </c>
+      <c r="K15" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="L15" s="32">
+        <v>0.25</v>
+      </c>
+      <c r="M15" s="32">
         <v>0.6</v>
       </c>
-      <c r="N15" s="44"/>
-      <c r="O15" s="45"/>
-      <c r="P15" s="46" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q15" s="47">
-        <v>0.25</v>
-      </c>
-      <c r="R15" s="47">
+      <c r="N15" s="32">
+        <v>29</v>
+      </c>
+      <c r="O15" s="33">
+        <v>3</v>
+      </c>
+      <c r="P15" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q15" s="35">
+        <v>0.25</v>
+      </c>
+      <c r="R15" s="35">
         <v>0.6</v>
       </c>
-      <c r="S15" s="47"/>
-      <c r="T15" s="48"/>
+      <c r="S15" s="62">
+        <v>54</v>
+      </c>
+      <c r="T15" s="36">
+        <v>3</v>
+      </c>
     </row>
     <row r="16" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
@@ -1806,8 +1938,12 @@
       <c r="C16" s="1">
         <v>0.75</v>
       </c>
-      <c r="D16" s="1"/>
-      <c r="E16" s="6"/>
+      <c r="D16" s="1">
+        <v>9</v>
+      </c>
+      <c r="E16" s="6">
+        <v>3</v>
+      </c>
       <c r="F16" s="10" t="s">
         <v>7</v>
       </c>
@@ -1817,8 +1953,12 @@
       <c r="H16" s="2">
         <v>0.75</v>
       </c>
-      <c r="I16" s="2"/>
-      <c r="J16" s="11"/>
+      <c r="I16" s="2">
+        <v>47</v>
+      </c>
+      <c r="J16" s="11">
+        <v>3</v>
+      </c>
       <c r="K16" s="15" t="s">
         <v>7</v>
       </c>
@@ -1828,8 +1968,12 @@
       <c r="M16" s="3">
         <v>0.75</v>
       </c>
-      <c r="N16" s="3"/>
-      <c r="O16" s="16"/>
+      <c r="N16" s="3">
+        <v>76</v>
+      </c>
+      <c r="O16" s="16">
+        <v>3</v>
+      </c>
       <c r="P16" s="20" t="s">
         <v>7</v>
       </c>
@@ -1839,8 +1983,12 @@
       <c r="R16" s="4">
         <v>0.75</v>
       </c>
-      <c r="S16" s="4"/>
-      <c r="T16" s="21"/>
+      <c r="S16" s="63">
+        <v>133</v>
+      </c>
+      <c r="T16" s="21">
+        <v>3</v>
+      </c>
     </row>
     <row r="17" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
@@ -1852,8 +2000,12 @@
       <c r="C17" s="1">
         <v>0.8</v>
       </c>
-      <c r="D17" s="1"/>
-      <c r="E17" s="6"/>
+      <c r="D17" s="1">
+        <v>9</v>
+      </c>
+      <c r="E17" s="6">
+        <v>3</v>
+      </c>
       <c r="F17" s="10" t="s">
         <v>7</v>
       </c>
@@ -1863,8 +2015,12 @@
       <c r="H17" s="2">
         <v>0.8</v>
       </c>
-      <c r="I17" s="2"/>
-      <c r="J17" s="11"/>
+      <c r="I17" s="2">
+        <v>59</v>
+      </c>
+      <c r="J17" s="11">
+        <v>3</v>
+      </c>
       <c r="K17" s="15" t="s">
         <v>7</v>
       </c>
@@ -1874,8 +2030,12 @@
       <c r="M17" s="3">
         <v>0.8</v>
       </c>
-      <c r="N17" s="3"/>
-      <c r="O17" s="16"/>
+      <c r="N17" s="3">
+        <v>112</v>
+      </c>
+      <c r="O17" s="16">
+        <v>3</v>
+      </c>
       <c r="P17" s="20" t="s">
         <v>7</v>
       </c>
@@ -1885,8 +2045,12 @@
       <c r="R17" s="4">
         <v>0.8</v>
       </c>
-      <c r="S17" s="4"/>
-      <c r="T17" s="21"/>
+      <c r="S17" s="63">
+        <v>191</v>
+      </c>
+      <c r="T17" s="21">
+        <v>3</v>
+      </c>
     </row>
     <row r="18" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
@@ -1898,8 +2062,12 @@
       <c r="C18" s="1">
         <v>0.83</v>
       </c>
-      <c r="D18" s="1"/>
-      <c r="E18" s="6"/>
+      <c r="D18" s="1">
+        <v>32</v>
+      </c>
+      <c r="E18" s="6">
+        <v>3</v>
+      </c>
       <c r="F18" s="10" t="s">
         <v>7</v>
       </c>
@@ -1909,8 +2077,12 @@
       <c r="H18" s="2">
         <v>0.83</v>
       </c>
-      <c r="I18" s="2"/>
-      <c r="J18" s="11"/>
+      <c r="I18" s="2">
+        <v>77</v>
+      </c>
+      <c r="J18" s="11">
+        <v>3</v>
+      </c>
       <c r="K18" s="15" t="s">
         <v>7</v>
       </c>
@@ -1920,8 +2092,12 @@
       <c r="M18" s="3">
         <v>0.83</v>
       </c>
-      <c r="N18" s="3"/>
-      <c r="O18" s="16"/>
+      <c r="N18" s="3">
+        <v>94</v>
+      </c>
+      <c r="O18" s="16">
+        <v>3</v>
+      </c>
       <c r="P18" s="20" t="s">
         <v>7</v>
       </c>
@@ -1931,8 +2107,12 @@
       <c r="R18" s="4">
         <v>0.83</v>
       </c>
-      <c r="S18" s="4"/>
-      <c r="T18" s="21"/>
+      <c r="S18" s="63">
+        <v>324</v>
+      </c>
+      <c r="T18" s="21">
+        <v>3</v>
+      </c>
     </row>
     <row r="19" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
@@ -1944,8 +2124,12 @@
       <c r="C19" s="1">
         <v>0.85</v>
       </c>
-      <c r="D19" s="1"/>
-      <c r="E19" s="6"/>
+      <c r="D19" s="1">
+        <v>32</v>
+      </c>
+      <c r="E19" s="6">
+        <v>3</v>
+      </c>
       <c r="F19" s="10" t="s">
         <v>7</v>
       </c>
@@ -1955,8 +2139,12 @@
       <c r="H19" s="2">
         <v>0.85</v>
       </c>
-      <c r="I19" s="2"/>
-      <c r="J19" s="11"/>
+      <c r="I19" s="2">
+        <v>77</v>
+      </c>
+      <c r="J19" s="11">
+        <v>3</v>
+      </c>
       <c r="K19" s="15" t="s">
         <v>7</v>
       </c>
@@ -1966,8 +2154,12 @@
       <c r="M19" s="3">
         <v>0.85</v>
       </c>
-      <c r="N19" s="3"/>
-      <c r="O19" s="16"/>
+      <c r="N19" s="3">
+        <v>181</v>
+      </c>
+      <c r="O19" s="16">
+        <v>3</v>
+      </c>
       <c r="P19" s="20" t="s">
         <v>7</v>
       </c>
@@ -1977,8 +2169,12 @@
       <c r="R19" s="4">
         <v>0.85</v>
       </c>
-      <c r="S19" s="4"/>
-      <c r="T19" s="21"/>
+      <c r="S19" s="63">
+        <v>349</v>
+      </c>
+      <c r="T19" s="21">
+        <v>3</v>
+      </c>
     </row>
     <row r="20" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
@@ -1990,8 +2186,12 @@
       <c r="C20" s="8">
         <v>0.9</v>
       </c>
-      <c r="D20" s="8"/>
-      <c r="E20" s="9"/>
+      <c r="D20" s="8">
+        <v>34</v>
+      </c>
+      <c r="E20" s="9">
+        <v>2</v>
+      </c>
       <c r="F20" s="12" t="s">
         <v>7</v>
       </c>
@@ -2001,8 +2201,12 @@
       <c r="H20" s="13">
         <v>0.9</v>
       </c>
-      <c r="I20" s="13"/>
-      <c r="J20" s="14"/>
+      <c r="I20" s="18">
+        <v>186</v>
+      </c>
+      <c r="J20" s="19">
+        <v>2</v>
+      </c>
       <c r="K20" s="17" t="s">
         <v>7</v>
       </c>
@@ -2012,8 +2216,12 @@
       <c r="M20" s="18">
         <v>0.9</v>
       </c>
-      <c r="N20" s="18"/>
-      <c r="O20" s="19"/>
+      <c r="N20" s="18">
+        <v>204</v>
+      </c>
+      <c r="O20" s="19">
+        <v>2</v>
+      </c>
       <c r="P20" s="22" t="s">
         <v>7</v>
       </c>
@@ -2023,18 +2231,107 @@
       <c r="R20" s="23">
         <v>0.9</v>
       </c>
-      <c r="S20" s="23"/>
-      <c r="T20" s="24"/>
+      <c r="S20" s="64">
+        <v>535</v>
+      </c>
+      <c r="T20" s="24">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
+    <mergeCell ref="U3:V8"/>
+    <mergeCell ref="S4:T8"/>
+    <mergeCell ref="S10:T14"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="F1:J1"/>
     <mergeCell ref="K1:O1"/>
     <mergeCell ref="P1:T1"/>
-    <mergeCell ref="U3:V8"/>
-    <mergeCell ref="S4:T8"/>
   </mergeCells>
+  <conditionalFormatting sqref="D3:D18 D20">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I3:I19">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N3:N20">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D19">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:D20">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I20">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I3:I20">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>

--- a/30411/Papp - Szentannai G. Gergo/Assignment 7 - Hash Tables (Open Addressing)/Hash Statistics.xlsx
+++ b/30411/Papp - Szentannai G. Gergo/Assignment 7 - Hash Tables (Open Addressing)/Hash Statistics.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="19">
   <si>
     <t>Hash Function (char * c, int i);</t>
   </si>
@@ -60,6 +60,18 @@
   <si>
     <t>Huge improvement, but still slow</t>
   </si>
+  <si>
+    <t>_100000, H3</t>
+  </si>
+  <si>
+    <t>MFF</t>
+  </si>
+  <si>
+    <t>ISF</t>
+  </si>
+  <si>
+    <t>exec. Time: 18 minutes</t>
+  </si>
 </sst>
 </file>
 
@@ -94,7 +106,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -137,6 +149,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="26">
     <border>
@@ -479,7 +497,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -676,6 +694,12 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -730,11 +754,19 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1040,10 +1072,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V20"/>
+  <dimension ref="A1:V23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O31" sqref="O31"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1053,44 +1085,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="75" t="s">
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="77" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="77"/>
-      <c r="K1" s="78" t="s">
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="80"/>
-      <c r="P1" s="81" t="s">
+      <c r="L1" s="81"/>
+      <c r="M1" s="81"/>
+      <c r="N1" s="81"/>
+      <c r="O1" s="82"/>
+      <c r="P1" s="83" t="s">
         <v>11</v>
       </c>
-      <c r="Q1" s="82"/>
-      <c r="R1" s="82"/>
-      <c r="S1" s="82"/>
-      <c r="T1" s="83"/>
+      <c r="Q1" s="84"/>
+      <c r="R1" s="84"/>
+      <c r="S1" s="84"/>
+      <c r="T1" s="85"/>
     </row>
     <row r="2" spans="1:22" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="37" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="38" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="C2" s="38" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D2" s="38" t="s">
         <v>3</v>
@@ -1205,10 +1237,10 @@
       <c r="T3" s="60">
         <v>3</v>
       </c>
-      <c r="U3" s="84" t="s">
+      <c r="U3" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="V3" s="85"/>
+      <c r="V3" s="67"/>
     </row>
     <row r="4" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
@@ -1265,12 +1297,12 @@
       <c r="R4" s="4">
         <v>0.75</v>
       </c>
-      <c r="S4" s="66" t="s">
+      <c r="S4" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="T4" s="67"/>
-      <c r="U4" s="84"/>
-      <c r="V4" s="85"/>
+      <c r="T4" s="69"/>
+      <c r="U4" s="66"/>
+      <c r="V4" s="67"/>
     </row>
     <row r="5" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
@@ -1327,10 +1359,10 @@
       <c r="R5" s="4">
         <v>0.8</v>
       </c>
-      <c r="S5" s="68"/>
-      <c r="T5" s="69"/>
-      <c r="U5" s="84"/>
-      <c r="V5" s="85"/>
+      <c r="S5" s="70"/>
+      <c r="T5" s="71"/>
+      <c r="U5" s="66"/>
+      <c r="V5" s="67"/>
     </row>
     <row r="6" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
@@ -1387,10 +1419,10 @@
       <c r="R6" s="4">
         <v>0.83</v>
       </c>
-      <c r="S6" s="68"/>
-      <c r="T6" s="69"/>
-      <c r="U6" s="84"/>
-      <c r="V6" s="85"/>
+      <c r="S6" s="70"/>
+      <c r="T6" s="71"/>
+      <c r="U6" s="66"/>
+      <c r="V6" s="67"/>
     </row>
     <row r="7" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
@@ -1447,10 +1479,10 @@
       <c r="R7" s="4">
         <v>0.85</v>
       </c>
-      <c r="S7" s="68"/>
-      <c r="T7" s="69"/>
-      <c r="U7" s="84"/>
-      <c r="V7" s="85"/>
+      <c r="S7" s="70"/>
+      <c r="T7" s="71"/>
+      <c r="U7" s="66"/>
+      <c r="V7" s="67"/>
     </row>
     <row r="8" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
@@ -1507,10 +1539,10 @@
       <c r="R8" s="23">
         <v>0.9</v>
       </c>
-      <c r="S8" s="70"/>
-      <c r="T8" s="71"/>
-      <c r="U8" s="84"/>
-      <c r="V8" s="85"/>
+      <c r="S8" s="72"/>
+      <c r="T8" s="73"/>
+      <c r="U8" s="66"/>
+      <c r="V8" s="67"/>
     </row>
     <row r="9" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="25" t="s">
@@ -1629,10 +1661,10 @@
       <c r="R10" s="4">
         <v>0.75</v>
       </c>
-      <c r="S10" s="66" t="s">
+      <c r="S10" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="T10" s="67"/>
+      <c r="T10" s="69"/>
     </row>
     <row r="11" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
@@ -1689,8 +1721,8 @@
       <c r="R11" s="4">
         <v>0.8</v>
       </c>
-      <c r="S11" s="68"/>
-      <c r="T11" s="69"/>
+      <c r="S11" s="70"/>
+      <c r="T11" s="71"/>
     </row>
     <row r="12" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
@@ -1747,8 +1779,8 @@
       <c r="R12" s="4">
         <v>0.83</v>
       </c>
-      <c r="S12" s="68"/>
-      <c r="T12" s="69"/>
+      <c r="S12" s="70"/>
+      <c r="T12" s="71"/>
     </row>
     <row r="13" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
@@ -1805,8 +1837,8 @@
       <c r="R13" s="4">
         <v>0.85</v>
       </c>
-      <c r="S13" s="68"/>
-      <c r="T13" s="69"/>
+      <c r="S13" s="70"/>
+      <c r="T13" s="71"/>
     </row>
     <row r="14" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
@@ -1863,8 +1895,8 @@
       <c r="R14" s="23">
         <v>0.9</v>
       </c>
-      <c r="S14" s="70"/>
-      <c r="T14" s="71"/>
+      <c r="S14" s="72"/>
+      <c r="T14" s="73"/>
     </row>
     <row r="15" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="25" t="s">
@@ -2204,7 +2236,7 @@
       <c r="I20" s="18">
         <v>186</v>
       </c>
-      <c r="J20" s="19">
+      <c r="J20" s="14">
         <v>2</v>
       </c>
       <c r="K20" s="17" t="s">
@@ -2238,8 +2270,32 @@
         <v>2</v>
       </c>
     </row>
+    <row r="22" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="23" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="86" t="s">
+        <v>15</v>
+      </c>
+      <c r="B23" s="87">
+        <v>0.25</v>
+      </c>
+      <c r="C23" s="87">
+        <v>0.75</v>
+      </c>
+      <c r="D23" s="88">
+        <v>29058</v>
+      </c>
+      <c r="E23" s="89">
+        <v>3</v>
+      </c>
+      <c r="F23" s="91" t="s">
+        <v>18</v>
+      </c>
+      <c r="G23" s="90"/>
+      <c r="H23" s="90"/>
+    </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
+    <mergeCell ref="F23:H23"/>
     <mergeCell ref="U3:V8"/>
     <mergeCell ref="S4:T8"/>
     <mergeCell ref="S10:T14"/>
